--- a/data/trans_orig/Q03B_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q03B_R-Provincia-trans_orig.xlsx
@@ -645,7 +645,7 @@
         <v>1.589057482702238</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2.58907037818737</v>
+        <v>2.589070378187371</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>4.22985193838313</v>
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7941606011625448</v>
+        <v>0.78988398079052</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.365038519967063</v>
+        <v>1.367083901609421</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.428456002214691</v>
+        <v>1.422153920134712</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.379360956038937</v>
+        <v>2.381769366003651</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.949764553374183</v>
+        <v>3.905735237857935</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.297815795437873</v>
+        <v>3.278847773282735</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.597963843105831</v>
+        <v>1.597613000117128</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.689003857495589</v>
+        <v>2.673445557870687</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>2.402314131566097</v>
+        <v>2.407019836725188</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.011910946956075</v>
+        <v>1.00723616909018</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.771281994488321</v>
+        <v>1.769438654988047</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.804593406605788</v>
+        <v>1.783404084241883</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.810158051725152</v>
+        <v>2.784733143754979</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.556245951464646</v>
+        <v>4.499190005357518</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.907358890906766</v>
+        <v>3.878144644647272</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.887108436547138</v>
+        <v>1.870025801601721</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.105809919364056</v>
+        <v>3.090286149336527</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.794340320591113</v>
+        <v>2.795465175814472</v>
       </c>
     </row>
     <row r="7">
@@ -763,10 +763,10 @@
         <v>3.676711779669953</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>3.13241247095002</v>
+        <v>3.132412470950021</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>2.461831863889428</v>
+        <v>2.461831863889429</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>2.592159318865944</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.64465997747738</v>
+        <v>1.634886104973145</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.033120558033288</v>
+        <v>1.030165114636366</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.225366262949072</v>
+        <v>1.237358579740624</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4.192484439039006</v>
+        <v>4.217299507912804</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>3.52848224463507</v>
+        <v>3.512263038699963</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>3.516420806479506</v>
+        <v>3.510327152076826</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>2.973083789130162</v>
+        <v>2.977430891324127</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>2.32814716245599</v>
+        <v>2.307266403435229</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>2.475345335255374</v>
+        <v>2.475738033951413</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.002911410885444</v>
+        <v>2.011718186375278</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.316501544929953</v>
+        <v>1.308651241491841</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.473845077136389</v>
+        <v>1.473098748076571</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.627163487864895</v>
+        <v>4.640326412328092</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>3.903484002721482</v>
+        <v>3.891560835674412</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>3.848380197253628</v>
+        <v>3.843670812123011</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>3.297835206638836</v>
+        <v>3.297983322258391</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>2.624173481146259</v>
+        <v>2.612228721130843</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>2.720700515030575</v>
+        <v>2.734408545522948</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.561982627072285</v>
+        <v>0.5671369089570243</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.040904697476898</v>
+        <v>1.030680579109556</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.567717672269351</v>
+        <v>1.55710236609096</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.788854210243131</v>
+        <v>2.801446221199286</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.869854573290049</v>
+        <v>2.877242516270012</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.74511724539618</v>
+        <v>2.772168324563793</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.71192654868131</v>
+        <v>1.72586680661783</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.007011063961431</v>
+        <v>2.011662890365113</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.230000888759184</v>
+        <v>2.215668322361299</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7674180464844799</v>
+        <v>0.7735768105914111</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.300788221759611</v>
+        <v>1.30135541767983</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.889298419953597</v>
+        <v>1.889029969444852</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.271683758892401</v>
+        <v>3.287769904344207</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.275242545130838</v>
+        <v>3.258787491249374</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.021982158530919</v>
+        <v>3.02959485448633</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.054836241922354</v>
+        <v>2.038973541923762</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.27915197196308</v>
+        <v>2.280986748546964</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.441524152931681</v>
+        <v>2.445266716251809</v>
       </c>
     </row>
     <row r="13">
@@ -969,7 +969,7 @@
         <v>1.882576141511612</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1.747798701881243</v>
+        <v>1.747798701881242</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>2.852968816827533</v>
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6565057773676645</v>
+        <v>0.6621987192048525</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.692637376430287</v>
+        <v>1.709895982660269</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.612051779209316</v>
+        <v>1.60522096128484</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.667062098377068</v>
+        <v>2.665099511356153</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>4.040978086539305</v>
+        <v>4.032081600187005</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>3.227357579623203</v>
+        <v>3.262003638525309</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>1.690131332574987</v>
+        <v>1.695906800705576</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>2.955920669121753</v>
+        <v>2.94501631594346</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>2.480242709407231</v>
+        <v>2.485101242297302</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8765319854221661</v>
+        <v>0.8893540894263219</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.08374297431627</v>
+        <v>2.088001202323223</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.89781502842185</v>
+        <v>1.915642095550105</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.08342410898203</v>
+        <v>3.104842156609903</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>4.562102647938381</v>
+        <v>4.563676557813598</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>3.683567854007722</v>
+        <v>3.675353269823577</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>1.968530636866383</v>
+        <v>1.977517135657013</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>3.326886685751449</v>
+        <v>3.33716736972853</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>2.76651131320873</v>
+        <v>2.780995531624959</v>
       </c>
     </row>
     <row r="16">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.135898751182425</v>
+        <v>1.128577037917824</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8184571063266612</v>
+        <v>0.8288491877970463</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.819173941618789</v>
+        <v>1.835711727775318</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.840128191878311</v>
+        <v>3.851760413898268</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.187357516292104</v>
+        <v>3.209081918367515</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>4.70546291370403</v>
+        <v>4.679880639752865</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.553498208874323</v>
+        <v>2.578378064323569</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>2.050452072344342</v>
+        <v>2.070006717680036</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3.309974427220591</v>
+        <v>3.298062467242322</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.618008502929942</v>
+        <v>1.637026232882036</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.192180213256333</v>
+        <v>1.188464582904228</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.199276027460134</v>
+        <v>2.184903309243906</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.514297360635417</v>
+        <v>4.554584412713577</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.786630843897624</v>
+        <v>3.831158643151014</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.209519366909643</v>
+        <v>5.208534229919857</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.088544079315923</v>
+        <v>3.080623345998433</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.496911133827219</v>
+        <v>2.500465987206888</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.741394141330555</v>
+        <v>3.734513372208765</v>
       </c>
     </row>
     <row r="19">
@@ -1187,10 +1187,10 @@
         <v>1.196133806029863</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1.945979578664956</v>
+        <v>1.945979578664955</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>2.950472120087349</v>
+        <v>2.95047212008735</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>3.354251847903463</v>
@@ -1216,31 +1216,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.6426696831883335</v>
+        <v>0.6417311589547989</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.051186008875071</v>
+        <v>1.053806804727114</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.758354981740737</v>
+        <v>1.754208417823771</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2.747245584292271</v>
+        <v>2.735525492069089</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>3.101319761089444</v>
+        <v>3.123943184399549</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>3.365248890561447</v>
+        <v>3.392693604490788</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>1.755365767171626</v>
+        <v>1.749914992399582</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>2.121088258404952</v>
+        <v>2.102345277221974</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>2.641341215274206</v>
+        <v>2.626349743228872</v>
       </c>
     </row>
     <row r="21">
@@ -1251,31 +1251,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9204016019417025</v>
+        <v>0.9213932689382195</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>1.402337160544756</v>
+        <v>1.397684487161619</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2.136066530175064</v>
+        <v>2.138801202489506</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>3.212056126499209</v>
+        <v>3.184798471106331</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>3.61198525677353</v>
+        <v>3.622704568057277</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>3.845705808371735</v>
+        <v>3.856397057231936</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>2.082456928190481</v>
+        <v>2.074413293063126</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>2.481058627451284</v>
+        <v>2.452431488990415</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>2.9639098755901</v>
+        <v>2.960989142792764</v>
       </c>
     </row>
     <row r="22">
@@ -1325,31 +1325,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.626201752426939</v>
+        <v>1.643432343374548</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.237096469098862</v>
+        <v>1.239791611736777</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.37818442868249</v>
+        <v>1.389261081013913</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.598455416467733</v>
+        <v>3.587359630267767</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>2.862153957546021</v>
+        <v>2.863005924513752</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.861559744929392</v>
+        <v>2.84851561748183</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.670721673179041</v>
+        <v>2.666271083684594</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>2.097602173464225</v>
+        <v>2.083339135661599</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>2.185160118684831</v>
+        <v>2.182446147298724</v>
       </c>
     </row>
     <row r="24">
@@ -1360,31 +1360,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.055049587624331</v>
+        <v>2.031717410207164</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.432931996584875</v>
+        <v>1.44399927967217</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.685686977909249</v>
+        <v>1.689700785973787</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.981931430119823</v>
+        <v>3.957555672605118</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.136451998316256</v>
+        <v>3.14130490759954</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.1847322335322</v>
+        <v>3.191589304596996</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.967079351736771</v>
+        <v>2.972504487071374</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.282156546661821</v>
+        <v>2.285551926453846</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.430428559572802</v>
+        <v>2.43330525867712</v>
       </c>
     </row>
     <row r="25">
@@ -1423,7 +1423,7 @@
         <v>2.671800220044688</v>
       </c>
       <c r="K25" s="5" t="n">
-        <v>2.690684283240056</v>
+        <v>2.690684283240057</v>
       </c>
     </row>
     <row r="26">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>1.089600007110522</v>
+        <v>1.089994542999285</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>1.734626003495522</v>
+        <v>1.743202640096482</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1.779526843735741</v>
+        <v>1.782403504189286</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3.545454186008755</v>
+        <v>3.559765617258313</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>3.29519310291183</v>
+        <v>3.285334544581098</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>3.339615035170821</v>
+        <v>3.358791188535859</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>2.36061399680826</v>
+        <v>2.372483767739825</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>2.568344829080368</v>
+        <v>2.571544141832838</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>2.6029460686676</v>
+        <v>2.604559830113529</v>
       </c>
     </row>
     <row r="27">
@@ -1469,31 +1469,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>1.34445242684734</v>
+        <v>1.345096996729118</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>1.993493914500203</v>
+        <v>1.991127418604834</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1.938020920497375</v>
+        <v>1.945204087170063</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3.919211613571764</v>
+        <v>3.945708058651959</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>3.589284292063723</v>
+        <v>3.594572672153835</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>3.585276458762646</v>
+        <v>3.592268786776591</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>2.623199903597953</v>
+        <v>2.637562509320566</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>2.772948049031729</v>
+        <v>2.768390477497079</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>2.775038904342444</v>
+        <v>2.774429319375621</v>
       </c>
     </row>
     <row r="28">
@@ -1526,7 +1526,7 @@
         <v>3.461689200294664</v>
       </c>
       <c r="I28" s="5" t="n">
-        <v>2.4278450180709</v>
+        <v>2.427845018070899</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2.505599931205924</v>
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.199123170181036</v>
+        <v>1.207624784339747</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>1.400380913152676</v>
+        <v>1.401123957189723</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.641650575526643</v>
+        <v>1.641744753514489</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3.46977274063312</v>
+        <v>3.469855463011387</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>3.43090131551781</v>
+        <v>3.439269525540559</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>3.395370647126696</v>
+        <v>3.392432882202285</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>2.370239869253242</v>
+        <v>2.369076772093632</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>2.448420958199571</v>
+        <v>2.454869157060852</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>2.562393219938643</v>
+        <v>2.563820165373758</v>
       </c>
     </row>
     <row r="30">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.322935070874959</v>
+        <v>1.33181556404537</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.510404232452937</v>
+        <v>1.509927494084265</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.741212501015313</v>
+        <v>1.74637382692213</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.639112873449867</v>
+        <v>3.629313610386968</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.583298640161479</v>
+        <v>3.587418353336731</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.531441486847103</v>
+        <v>3.529313606312455</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.489590312510248</v>
+        <v>2.49266156807819</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.556818740945852</v>
+        <v>2.560964884427485</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.660500885554473</v>
+        <v>2.661245196745421</v>
       </c>
     </row>
     <row r="31">
